--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H2">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>1999.951263329785</v>
+        <v>2976.151194441439</v>
       </c>
       <c r="R2">
-        <v>1999.951263329785</v>
+        <v>26785.36074997295</v>
       </c>
       <c r="S2">
-        <v>0.0363273629580055</v>
+        <v>0.04762152047045896</v>
       </c>
       <c r="T2">
-        <v>0.0363273629580055</v>
+        <v>0.04762152047045896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H3">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>3682.160036480448</v>
+        <v>4902.953664042002</v>
       </c>
       <c r="R3">
-        <v>3682.160036480448</v>
+        <v>44126.58297637801</v>
       </c>
       <c r="S3">
-        <v>0.06688321188986439</v>
+        <v>0.07845236784810201</v>
       </c>
       <c r="T3">
-        <v>0.06688321188986439</v>
+        <v>0.07845236784810201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H4">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1397.916079979111</v>
+        <v>1967.005001275432</v>
       </c>
       <c r="R4">
-        <v>1397.916079979111</v>
+        <v>17703.04501147888</v>
       </c>
       <c r="S4">
-        <v>0.0253919211699608</v>
+        <v>0.03147412977831367</v>
       </c>
       <c r="T4">
-        <v>0.0253919211699608</v>
+        <v>0.03147412977831368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H5">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>3172.746998065648</v>
+        <v>4339.483297344002</v>
       </c>
       <c r="R5">
-        <v>3172.746998065648</v>
+        <v>39055.34967609601</v>
       </c>
       <c r="S5">
-        <v>0.05763017023762722</v>
+        <v>0.06943625480508106</v>
       </c>
       <c r="T5">
-        <v>0.05763017023762722</v>
+        <v>0.06943625480508107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H6">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>2818.324598625195</v>
+        <v>3163.286461981091</v>
       </c>
       <c r="R6">
-        <v>2818.324598625195</v>
+        <v>28469.57815782982</v>
       </c>
       <c r="S6">
-        <v>0.05119239778737054</v>
+        <v>0.05061587975923726</v>
       </c>
       <c r="T6">
-        <v>0.05119239778737054</v>
+        <v>0.05061587975923727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H7">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>5188.88754799435</v>
+        <v>5211.242956390006</v>
       </c>
       <c r="R7">
-        <v>5188.88754799435</v>
+        <v>46901.18660751006</v>
       </c>
       <c r="S7">
-        <v>0.09425159740664298</v>
+        <v>0.08338531778485048</v>
       </c>
       <c r="T7">
-        <v>0.09425159740664298</v>
+        <v>0.08338531778485049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H8">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>1969.938641634377</v>
+        <v>2090.686892119219</v>
       </c>
       <c r="R8">
-        <v>1969.938641634377</v>
+        <v>18816.18202907297</v>
       </c>
       <c r="S8">
-        <v>0.03578220997270967</v>
+        <v>0.03345316891706546</v>
       </c>
       <c r="T8">
-        <v>0.03578220997270967</v>
+        <v>0.03345316891706546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H9">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>4471.024406352337</v>
+        <v>4612.342542314158</v>
       </c>
       <c r="R9">
-        <v>4471.024406352337</v>
+        <v>41511.08288082743</v>
       </c>
       <c r="S9">
-        <v>0.08121224220896417</v>
+        <v>0.0738022870631764</v>
       </c>
       <c r="T9">
-        <v>0.08121224220896417</v>
+        <v>0.07380228706317642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H10">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>4631.347951829908</v>
+        <v>5524.908676977627</v>
       </c>
       <c r="R10">
-        <v>4631.347951829908</v>
+        <v>49724.17809279864</v>
       </c>
       <c r="S10">
-        <v>0.08412437898652807</v>
+        <v>0.08840429617605014</v>
       </c>
       <c r="T10">
-        <v>0.08412437898652807</v>
+        <v>0.08840429617605015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H11">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>8526.889957743746</v>
+        <v>9101.812868875038</v>
       </c>
       <c r="R11">
-        <v>8526.889957743746</v>
+        <v>81916.31581987534</v>
       </c>
       <c r="S11">
-        <v>0.1548834874516894</v>
+        <v>0.1456384906327877</v>
       </c>
       <c r="T11">
-        <v>0.1548834874516894</v>
+        <v>0.1456384906327877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H12">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>3237.196772016425</v>
+        <v>3651.535923142045</v>
       </c>
       <c r="R12">
-        <v>3237.196772016425</v>
+        <v>32863.82330827841</v>
       </c>
       <c r="S12">
-        <v>0.05880084393043171</v>
+        <v>0.058428379928178</v>
       </c>
       <c r="T12">
-        <v>0.05880084393043171</v>
+        <v>0.05842837992817801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H13">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>7347.226695265136</v>
+        <v>8055.789963854644</v>
       </c>
       <c r="R13">
-        <v>7347.226695265136</v>
+        <v>72502.1096746918</v>
       </c>
       <c r="S13">
-        <v>0.1334559375458301</v>
+        <v>0.1289010341228383</v>
       </c>
       <c r="T13">
-        <v>0.1334559375458301</v>
+        <v>0.1289010341228383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H14">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>1289.368993129151</v>
+        <v>1447.360290111011</v>
       </c>
       <c r="R14">
-        <v>1289.368993129151</v>
+        <v>13026.2426109991</v>
       </c>
       <c r="S14">
-        <v>0.02342025841280568</v>
+        <v>0.02315927289325325</v>
       </c>
       <c r="T14">
-        <v>0.02342025841280568</v>
+        <v>0.02315927289325325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H15">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>2373.889337119471</v>
+        <v>2384.401857957525</v>
       </c>
       <c r="R15">
-        <v>2373.889337119471</v>
+        <v>21459.61672161773</v>
       </c>
       <c r="S15">
-        <v>0.04311962053920205</v>
+        <v>0.0381529144421829</v>
       </c>
       <c r="T15">
-        <v>0.04311962053920205</v>
+        <v>0.0381529144421829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H16">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>901.2367859008679</v>
+        <v>956.592841994418</v>
       </c>
       <c r="R16">
-        <v>901.2367859008679</v>
+        <v>8609.335577949762</v>
       </c>
       <c r="S16">
-        <v>0.01637017683021832</v>
+        <v>0.01530648230910234</v>
       </c>
       <c r="T16">
-        <v>0.01637017683021832</v>
+        <v>0.01530648230910234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H17">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>2045.470645888872</v>
+        <v>2110.375244344558</v>
       </c>
       <c r="R17">
-        <v>2045.470645888872</v>
+        <v>18993.37719910102</v>
       </c>
       <c r="S17">
-        <v>0.03715418267214948</v>
+        <v>0.03376820306932215</v>
       </c>
       <c r="T17">
-        <v>0.03715418267214948</v>
+        <v>0.03376820306932216</v>
       </c>
     </row>
   </sheetData>
